--- a/Documents/ProjectPlan_ThueXe.xlsx
+++ b/Documents/ProjectPlan_ThueXe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APC\Desktop\Project\CNPMNC_OKA2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D28FAE-434A-47C0-81B5-A6812E892717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5689A126-8669-4BC5-96CD-6BED4B39E1BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Risk Mgmt" sheetId="2" r:id="rId2"/>
     <sheet name="Ref" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Member">Ref!$G$2:$G$9</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="139">
   <si>
     <t>Task Group</t>
   </si>
@@ -106,55 +105,10 @@
     <t>SPRINT 1 (BASIC VERSION - MF)</t>
   </si>
   <si>
-    <t>Phân tích thiết kế</t>
-  </si>
-  <si>
-    <t>Partner Web</t>
-  </si>
-  <si>
-    <t>-  Create new account</t>
-  </si>
-  <si>
     <t>Vẽ sequence diagram</t>
   </si>
   <si>
-    <t>- Update account</t>
-  </si>
-  <si>
-    <t>- Login</t>
-  </si>
-  <si>
-    <t>- Logout</t>
-  </si>
-  <si>
-    <t>- Approve new account</t>
-  </si>
-  <si>
-    <t>Customer Web</t>
-  </si>
-  <si>
-    <t>Admin Web</t>
-  </si>
-  <si>
-    <t>- Thiết kế CSDL</t>
-  </si>
-  <si>
     <t>Vẽ data diagram</t>
-  </si>
-  <si>
-    <t>- Thiết kế giao diện</t>
-  </si>
-  <si>
-    <t>Dùng &lt;tên tool&gt;</t>
-  </si>
-  <si>
-    <t>Lập trình</t>
-  </si>
-  <si>
-    <t>Kiểm thử</t>
-  </si>
-  <si>
-    <t>-integration testing/functional testing</t>
   </si>
   <si>
     <t>SPRINT 2 (ADVANCED VERSION - MF+AF)</t>
@@ -568,16 +522,32 @@
   <si>
     <t>Customer web</t>
   </si>
+  <si>
+    <t>Quỳnh, Tú</t>
+  </si>
+  <si>
+    <t>Thiết kế CSDL</t>
+  </si>
+  <si>
+    <t>Hưng, Khang, Lân</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -892,180 +862,177 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="19" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="19" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,17 +1248,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H937"/>
+  <dimension ref="A1:H938"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.59765625" customWidth="1"/>
     <col min="2" max="2" width="38.8984375" customWidth="1"/>
-    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.09765625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -1306,7 +1274,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1324,11 +1294,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1336,11 +1306,11 @@
       <c r="F2" s="5"/>
       <c r="G2" s="4"/>
       <c r="H2" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1352,9 +1322,9 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="60" t="s">
-        <v>96</v>
+      <c r="A4" s="43"/>
+      <c r="B4" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1364,9 +1334,9 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60" t="s">
-        <v>114</v>
+      <c r="A5" s="43"/>
+      <c r="B5" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1376,9 +1346,9 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="60" t="s">
-        <v>115</v>
+      <c r="A6" s="43"/>
+      <c r="B6" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1388,9 +1358,9 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60" t="s">
-        <v>116</v>
+      <c r="A7" s="44"/>
+      <c r="B7" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1400,7 +1370,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1416,9 +1386,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="60" t="s">
-        <v>117</v>
+      <c r="A9" s="43"/>
+      <c r="B9" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1428,9 +1398,9 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60" t="s">
-        <v>118</v>
+      <c r="A10" s="43"/>
+      <c r="B10" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1440,7 +1410,7 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1452,9 +1422,9 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="60" t="s">
-        <v>119</v>
+      <c r="A12" s="43"/>
+      <c r="B12" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1464,9 +1434,9 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="61" t="s">
-        <v>120</v>
+      <c r="A13" s="43"/>
+      <c r="B13" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1476,8 +1446,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4"/>
@@ -1488,11 +1458,11 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>121</v>
+      <c r="B15" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1502,9 +1472,9 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="60" t="s">
-        <v>122</v>
+      <c r="A16" s="46"/>
+      <c r="B16" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1514,9 +1484,9 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="60" t="s">
-        <v>124</v>
+      <c r="A17" s="46"/>
+      <c r="B17" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1526,9 +1496,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="60" t="s">
-        <v>123</v>
+      <c r="A18" s="47"/>
+      <c r="B18" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1556,7 +1526,9 @@
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1568,7 +1540,9 @@
       <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1580,7 +1554,9 @@
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1590,348 +1566,363 @@
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
-      <c r="B26" s="71" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+      <c r="B39" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+      <c r="B41" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="B42" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
-      <c r="B27" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
-      <c r="B28" s="71" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="31"/>
+      <c r="B43" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="66"/>
-      <c r="B29" s="72" t="s">
+      <c r="C44" s="33"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+      <c r="B46" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
-      <c r="B30" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="71" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
-      <c r="B32" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
-      <c r="B33" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
-      <c r="B34" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
-      <c r="B36" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="66"/>
-      <c r="B37" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
-      <c r="B38" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
-      <c r="B39" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
-      <c r="B40" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
-      <c r="B41" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="66"/>
-      <c r="B42" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
-      <c r="B46" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="12" t="s">
-        <v>40</v>
+      <c r="B48" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="8" t="s">
-        <v>41</v>
+      <c r="B49" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>42</v>
+      <c r="A50" s="4"/>
+      <c r="B50" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1941,7 +1932,7 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1951,7 +1942,7 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1960,8 +1951,8 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1970,9 +1961,9 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="76"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="75"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -1980,2654 +1971,2664 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="73"/>
-      <c r="B56" s="74"/>
-      <c r="H56" s="14"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="73"/>
-      <c r="B57" s="74"/>
-      <c r="H57" s="14"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H58" s="14"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="39"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H59" s="14"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H60" s="14"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H61" s="14"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H62" s="14"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H63" s="14"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H64" s="14"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H65" s="14"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H66" s="14"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H67" s="14"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H68" s="14"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H69" s="14"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H70" s="14"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H71" s="14"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H72" s="14"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H73" s="14"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H74" s="14"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H75" s="14"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H76" s="14"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H77" s="14"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H78" s="14"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H79" s="14"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H80" s="14"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H81" s="14"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H82" s="14"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H83" s="14"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H84" s="14"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H85" s="14"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H86" s="14"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H87" s="14"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H88" s="14"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H89" s="14"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H90" s="14"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H91" s="14"/>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H92" s="14"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H93" s="14"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H94" s="14"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H95" s="14"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H96" s="14"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H97" s="14"/>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H98" s="14"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H99" s="14"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="100" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H100" s="14"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H101" s="14"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H102" s="14"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H103" s="14"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H104" s="14"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H105" s="14"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H106" s="14"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H107" s="14"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H108" s="14"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H109" s="14"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H110" s="14"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H111" s="14"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H112" s="14"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H113" s="14"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H114" s="14"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H115" s="14"/>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H116" s="14"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H117" s="14"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H118" s="14"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H119" s="14"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H120" s="14"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H121" s="14"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H122" s="14"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H123" s="14"/>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H124" s="14"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H125" s="14"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H126" s="14"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H127" s="14"/>
+      <c r="H127" s="12"/>
     </row>
     <row r="128" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H128" s="14"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H129" s="14"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H130" s="14"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H131" s="14"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H132" s="14"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H133" s="14"/>
+      <c r="H133" s="12"/>
     </row>
     <row r="134" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H134" s="14"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H135" s="14"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H136" s="14"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H137" s="14"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H138" s="14"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H139" s="14"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H140" s="14"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H141" s="14"/>
+      <c r="H141" s="12"/>
     </row>
     <row r="142" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H142" s="14"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H143" s="14"/>
+      <c r="H143" s="12"/>
     </row>
     <row r="144" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H144" s="14"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H145" s="14"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H146" s="14"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H147" s="14"/>
+      <c r="H147" s="12"/>
     </row>
     <row r="148" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H148" s="14"/>
+      <c r="H148" s="12"/>
     </row>
     <row r="149" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H149" s="14"/>
+      <c r="H149" s="12"/>
     </row>
     <row r="150" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H150" s="14"/>
+      <c r="H150" s="12"/>
     </row>
     <row r="151" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H151" s="14"/>
+      <c r="H151" s="12"/>
     </row>
     <row r="152" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H152" s="14"/>
+      <c r="H152" s="12"/>
     </row>
     <row r="153" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H153" s="14"/>
+      <c r="H153" s="12"/>
     </row>
     <row r="154" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H154" s="14"/>
+      <c r="H154" s="12"/>
     </row>
     <row r="155" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H155" s="14"/>
+      <c r="H155" s="12"/>
     </row>
     <row r="156" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H156" s="14"/>
+      <c r="H156" s="12"/>
     </row>
     <row r="157" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H157" s="14"/>
+      <c r="H157" s="12"/>
     </row>
     <row r="158" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H158" s="14"/>
+      <c r="H158" s="12"/>
     </row>
     <row r="159" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H159" s="14"/>
+      <c r="H159" s="12"/>
     </row>
     <row r="160" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H160" s="14"/>
+      <c r="H160" s="12"/>
     </row>
     <row r="161" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H161" s="14"/>
+      <c r="H161" s="12"/>
     </row>
     <row r="162" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H162" s="14"/>
+      <c r="H162" s="12"/>
     </row>
     <row r="163" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H163" s="14"/>
+      <c r="H163" s="12"/>
     </row>
     <row r="164" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H164" s="14"/>
+      <c r="H164" s="12"/>
     </row>
     <row r="165" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H165" s="14"/>
+      <c r="H165" s="12"/>
     </row>
     <row r="166" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H166" s="14"/>
+      <c r="H166" s="12"/>
     </row>
     <row r="167" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H167" s="14"/>
+      <c r="H167" s="12"/>
     </row>
     <row r="168" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H168" s="14"/>
+      <c r="H168" s="12"/>
     </row>
     <row r="169" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H169" s="14"/>
+      <c r="H169" s="12"/>
     </row>
     <row r="170" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H170" s="14"/>
+      <c r="H170" s="12"/>
     </row>
     <row r="171" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H171" s="14"/>
+      <c r="H171" s="12"/>
     </row>
     <row r="172" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H172" s="14"/>
+      <c r="H172" s="12"/>
     </row>
     <row r="173" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H173" s="14"/>
+      <c r="H173" s="12"/>
     </row>
     <row r="174" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H174" s="14"/>
+      <c r="H174" s="12"/>
     </row>
     <row r="175" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H175" s="14"/>
+      <c r="H175" s="12"/>
     </row>
     <row r="176" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H176" s="14"/>
+      <c r="H176" s="12"/>
     </row>
     <row r="177" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H177" s="14"/>
+      <c r="H177" s="12"/>
     </row>
     <row r="178" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H178" s="14"/>
+      <c r="H178" s="12"/>
     </row>
     <row r="179" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H179" s="14"/>
+      <c r="H179" s="12"/>
     </row>
     <row r="180" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H180" s="14"/>
+      <c r="H180" s="12"/>
     </row>
     <row r="181" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H181" s="14"/>
+      <c r="H181" s="12"/>
     </row>
     <row r="182" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H182" s="14"/>
+      <c r="H182" s="12"/>
     </row>
     <row r="183" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H183" s="14"/>
+      <c r="H183" s="12"/>
     </row>
     <row r="184" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H184" s="14"/>
+      <c r="H184" s="12"/>
     </row>
     <row r="185" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H185" s="14"/>
+      <c r="H185" s="12"/>
     </row>
     <row r="186" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H186" s="14"/>
+      <c r="H186" s="12"/>
     </row>
     <row r="187" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H187" s="14"/>
+      <c r="H187" s="12"/>
     </row>
     <row r="188" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H188" s="14"/>
+      <c r="H188" s="12"/>
     </row>
     <row r="189" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H189" s="14"/>
+      <c r="H189" s="12"/>
     </row>
     <row r="190" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H190" s="14"/>
+      <c r="H190" s="12"/>
     </row>
     <row r="191" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H191" s="14"/>
+      <c r="H191" s="12"/>
     </row>
     <row r="192" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H192" s="14"/>
+      <c r="H192" s="12"/>
     </row>
     <row r="193" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H193" s="14"/>
+      <c r="H193" s="12"/>
     </row>
     <row r="194" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H194" s="14"/>
+      <c r="H194" s="12"/>
     </row>
     <row r="195" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H195" s="14"/>
+      <c r="H195" s="12"/>
     </row>
     <row r="196" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H196" s="14"/>
+      <c r="H196" s="12"/>
     </row>
     <row r="197" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H197" s="14"/>
+      <c r="H197" s="12"/>
     </row>
     <row r="198" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H198" s="14"/>
+      <c r="H198" s="12"/>
     </row>
     <row r="199" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H199" s="14"/>
+      <c r="H199" s="12"/>
     </row>
     <row r="200" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H200" s="14"/>
+      <c r="H200" s="12"/>
     </row>
     <row r="201" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H201" s="14"/>
+      <c r="H201" s="12"/>
     </row>
     <row r="202" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H202" s="14"/>
+      <c r="H202" s="12"/>
     </row>
     <row r="203" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H203" s="14"/>
+      <c r="H203" s="12"/>
     </row>
     <row r="204" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H204" s="14"/>
+      <c r="H204" s="12"/>
     </row>
     <row r="205" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H205" s="14"/>
+      <c r="H205" s="12"/>
     </row>
     <row r="206" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H206" s="14"/>
+      <c r="H206" s="12"/>
     </row>
     <row r="207" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H207" s="14"/>
+      <c r="H207" s="12"/>
     </row>
     <row r="208" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H208" s="14"/>
+      <c r="H208" s="12"/>
     </row>
     <row r="209" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H209" s="14"/>
+      <c r="H209" s="12"/>
     </row>
     <row r="210" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H210" s="14"/>
+      <c r="H210" s="12"/>
     </row>
     <row r="211" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H211" s="14"/>
+      <c r="H211" s="12"/>
     </row>
     <row r="212" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H212" s="14"/>
+      <c r="H212" s="12"/>
     </row>
     <row r="213" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H213" s="14"/>
+      <c r="H213" s="12"/>
     </row>
     <row r="214" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H214" s="14"/>
+      <c r="H214" s="12"/>
     </row>
     <row r="215" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H215" s="14"/>
+      <c r="H215" s="12"/>
     </row>
     <row r="216" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H216" s="14"/>
+      <c r="H216" s="12"/>
     </row>
     <row r="217" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H217" s="14"/>
+      <c r="H217" s="12"/>
     </row>
     <row r="218" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H218" s="14"/>
+      <c r="H218" s="12"/>
     </row>
     <row r="219" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H219" s="14"/>
+      <c r="H219" s="12"/>
     </row>
     <row r="220" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H220" s="14"/>
+      <c r="H220" s="12"/>
     </row>
     <row r="221" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H221" s="14"/>
+      <c r="H221" s="12"/>
     </row>
     <row r="222" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H222" s="14"/>
+      <c r="H222" s="12"/>
     </row>
     <row r="223" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H223" s="14"/>
+      <c r="H223" s="12"/>
     </row>
     <row r="224" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H224" s="14"/>
+      <c r="H224" s="12"/>
     </row>
     <row r="225" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H225" s="14"/>
+      <c r="H225" s="12"/>
     </row>
     <row r="226" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H226" s="14"/>
+      <c r="H226" s="12"/>
     </row>
     <row r="227" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H227" s="14"/>
+      <c r="H227" s="12"/>
     </row>
     <row r="228" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H228" s="14"/>
+      <c r="H228" s="12"/>
     </row>
     <row r="229" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H229" s="14"/>
+      <c r="H229" s="12"/>
     </row>
     <row r="230" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H230" s="14"/>
+      <c r="H230" s="12"/>
     </row>
     <row r="231" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H231" s="14"/>
+      <c r="H231" s="12"/>
     </row>
     <row r="232" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H232" s="14"/>
+      <c r="H232" s="12"/>
     </row>
     <row r="233" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H233" s="14"/>
+      <c r="H233" s="12"/>
     </row>
     <row r="234" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H234" s="14"/>
+      <c r="H234" s="12"/>
     </row>
     <row r="235" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H235" s="14"/>
+      <c r="H235" s="12"/>
     </row>
     <row r="236" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H236" s="14"/>
+      <c r="H236" s="12"/>
     </row>
     <row r="237" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H237" s="14"/>
+      <c r="H237" s="12"/>
     </row>
     <row r="238" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H238" s="14"/>
+      <c r="H238" s="12"/>
     </row>
     <row r="239" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H239" s="14"/>
+      <c r="H239" s="12"/>
     </row>
     <row r="240" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H240" s="14"/>
+      <c r="H240" s="12"/>
     </row>
     <row r="241" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H241" s="14"/>
+      <c r="H241" s="12"/>
     </row>
     <row r="242" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H242" s="14"/>
+      <c r="H242" s="12"/>
     </row>
     <row r="243" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H243" s="14"/>
+      <c r="H243" s="12"/>
     </row>
     <row r="244" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H244" s="14"/>
+      <c r="H244" s="12"/>
     </row>
     <row r="245" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H245" s="14"/>
+      <c r="H245" s="12"/>
     </row>
     <row r="246" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H246" s="14"/>
+      <c r="H246" s="12"/>
     </row>
     <row r="247" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H247" s="14"/>
+      <c r="H247" s="12"/>
     </row>
     <row r="248" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H248" s="14"/>
+      <c r="H248" s="12"/>
     </row>
     <row r="249" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H249" s="14"/>
+      <c r="H249" s="12"/>
     </row>
     <row r="250" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H250" s="14"/>
+      <c r="H250" s="12"/>
     </row>
     <row r="251" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H251" s="14"/>
+      <c r="H251" s="12"/>
     </row>
     <row r="252" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H252" s="14"/>
+      <c r="H252" s="12"/>
     </row>
     <row r="253" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H253" s="14"/>
+      <c r="H253" s="12"/>
     </row>
     <row r="254" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H254" s="14"/>
+      <c r="H254" s="12"/>
     </row>
     <row r="255" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H255" s="14"/>
+      <c r="H255" s="12"/>
     </row>
     <row r="256" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H256" s="14"/>
+      <c r="H256" s="12"/>
     </row>
     <row r="257" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H257" s="14"/>
+      <c r="H257" s="12"/>
     </row>
     <row r="258" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H258" s="14"/>
+      <c r="H258" s="12"/>
     </row>
     <row r="259" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H259" s="14"/>
+      <c r="H259" s="12"/>
     </row>
     <row r="260" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H260" s="14"/>
+      <c r="H260" s="12"/>
     </row>
     <row r="261" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H261" s="14"/>
+      <c r="H261" s="12"/>
     </row>
     <row r="262" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H262" s="14"/>
+      <c r="H262" s="12"/>
     </row>
     <row r="263" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H263" s="14"/>
+      <c r="H263" s="12"/>
     </row>
     <row r="264" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H264" s="14"/>
+      <c r="H264" s="12"/>
     </row>
     <row r="265" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H265" s="14"/>
+      <c r="H265" s="12"/>
     </row>
     <row r="266" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H266" s="14"/>
+      <c r="H266" s="12"/>
     </row>
     <row r="267" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H267" s="14"/>
+      <c r="H267" s="12"/>
     </row>
     <row r="268" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H268" s="14"/>
+      <c r="H268" s="12"/>
     </row>
     <row r="269" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H269" s="14"/>
+      <c r="H269" s="12"/>
     </row>
     <row r="270" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H270" s="14"/>
+      <c r="H270" s="12"/>
     </row>
     <row r="271" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H271" s="14"/>
+      <c r="H271" s="12"/>
     </row>
     <row r="272" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H272" s="14"/>
+      <c r="H272" s="12"/>
     </row>
     <row r="273" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H273" s="14"/>
+      <c r="H273" s="12"/>
     </row>
     <row r="274" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H274" s="14"/>
+      <c r="H274" s="12"/>
     </row>
     <row r="275" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H275" s="14"/>
+      <c r="H275" s="12"/>
     </row>
     <row r="276" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H276" s="14"/>
+      <c r="H276" s="12"/>
     </row>
     <row r="277" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H277" s="14"/>
+      <c r="H277" s="12"/>
     </row>
     <row r="278" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H278" s="14"/>
+      <c r="H278" s="12"/>
     </row>
     <row r="279" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H279" s="14"/>
+      <c r="H279" s="12"/>
     </row>
     <row r="280" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H280" s="14"/>
+      <c r="H280" s="12"/>
     </row>
     <row r="281" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H281" s="14"/>
+      <c r="H281" s="12"/>
     </row>
     <row r="282" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H282" s="14"/>
+      <c r="H282" s="12"/>
     </row>
     <row r="283" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H283" s="14"/>
+      <c r="H283" s="12"/>
     </row>
     <row r="284" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H284" s="14"/>
+      <c r="H284" s="12"/>
     </row>
     <row r="285" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H285" s="14"/>
+      <c r="H285" s="12"/>
     </row>
     <row r="286" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H286" s="14"/>
+      <c r="H286" s="12"/>
     </row>
     <row r="287" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H287" s="14"/>
+      <c r="H287" s="12"/>
     </row>
     <row r="288" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H288" s="14"/>
+      <c r="H288" s="12"/>
     </row>
     <row r="289" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H289" s="14"/>
+      <c r="H289" s="12"/>
     </row>
     <row r="290" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H290" s="14"/>
+      <c r="H290" s="12"/>
     </row>
     <row r="291" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H291" s="14"/>
+      <c r="H291" s="12"/>
     </row>
     <row r="292" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H292" s="14"/>
+      <c r="H292" s="12"/>
     </row>
     <row r="293" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H293" s="14"/>
+      <c r="H293" s="12"/>
     </row>
     <row r="294" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H294" s="14"/>
+      <c r="H294" s="12"/>
     </row>
     <row r="295" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H295" s="14"/>
+      <c r="H295" s="12"/>
     </row>
     <row r="296" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H296" s="14"/>
+      <c r="H296" s="12"/>
     </row>
     <row r="297" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H297" s="14"/>
+      <c r="H297" s="12"/>
     </row>
     <row r="298" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H298" s="14"/>
+      <c r="H298" s="12"/>
     </row>
     <row r="299" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H299" s="14"/>
+      <c r="H299" s="12"/>
     </row>
     <row r="300" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H300" s="14"/>
+      <c r="H300" s="12"/>
     </row>
     <row r="301" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H301" s="14"/>
+      <c r="H301" s="12"/>
     </row>
     <row r="302" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H302" s="14"/>
+      <c r="H302" s="12"/>
     </row>
     <row r="303" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H303" s="14"/>
+      <c r="H303" s="12"/>
     </row>
     <row r="304" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H304" s="14"/>
+      <c r="H304" s="12"/>
     </row>
     <row r="305" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H305" s="14"/>
+      <c r="H305" s="12"/>
     </row>
     <row r="306" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H306" s="14"/>
+      <c r="H306" s="12"/>
     </row>
     <row r="307" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H307" s="14"/>
+      <c r="H307" s="12"/>
     </row>
     <row r="308" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H308" s="14"/>
+      <c r="H308" s="12"/>
     </row>
     <row r="309" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H309" s="14"/>
+      <c r="H309" s="12"/>
     </row>
     <row r="310" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H310" s="14"/>
+      <c r="H310" s="12"/>
     </row>
     <row r="311" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H311" s="14"/>
+      <c r="H311" s="12"/>
     </row>
     <row r="312" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H312" s="14"/>
+      <c r="H312" s="12"/>
     </row>
     <row r="313" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H313" s="14"/>
+      <c r="H313" s="12"/>
     </row>
     <row r="314" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H314" s="14"/>
+      <c r="H314" s="12"/>
     </row>
     <row r="315" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H315" s="14"/>
+      <c r="H315" s="12"/>
     </row>
     <row r="316" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H316" s="14"/>
+      <c r="H316" s="12"/>
     </row>
     <row r="317" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H317" s="14"/>
+      <c r="H317" s="12"/>
     </row>
     <row r="318" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H318" s="14"/>
+      <c r="H318" s="12"/>
     </row>
     <row r="319" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H319" s="14"/>
+      <c r="H319" s="12"/>
     </row>
     <row r="320" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H320" s="14"/>
+      <c r="H320" s="12"/>
     </row>
     <row r="321" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H321" s="14"/>
+      <c r="H321" s="12"/>
     </row>
     <row r="322" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H322" s="14"/>
+      <c r="H322" s="12"/>
     </row>
     <row r="323" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H323" s="14"/>
+      <c r="H323" s="12"/>
     </row>
     <row r="324" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H324" s="14"/>
+      <c r="H324" s="12"/>
     </row>
     <row r="325" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H325" s="14"/>
+      <c r="H325" s="12"/>
     </row>
     <row r="326" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H326" s="14"/>
+      <c r="H326" s="12"/>
     </row>
     <row r="327" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H327" s="14"/>
+      <c r="H327" s="12"/>
     </row>
     <row r="328" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H328" s="14"/>
+      <c r="H328" s="12"/>
     </row>
     <row r="329" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H329" s="14"/>
+      <c r="H329" s="12"/>
     </row>
     <row r="330" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H330" s="14"/>
+      <c r="H330" s="12"/>
     </row>
     <row r="331" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H331" s="14"/>
+      <c r="H331" s="12"/>
     </row>
     <row r="332" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H332" s="14"/>
+      <c r="H332" s="12"/>
     </row>
     <row r="333" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H333" s="14"/>
+      <c r="H333" s="12"/>
     </row>
     <row r="334" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H334" s="14"/>
+      <c r="H334" s="12"/>
     </row>
     <row r="335" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H335" s="14"/>
+      <c r="H335" s="12"/>
     </row>
     <row r="336" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H336" s="14"/>
+      <c r="H336" s="12"/>
     </row>
     <row r="337" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H337" s="14"/>
+      <c r="H337" s="12"/>
     </row>
     <row r="338" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H338" s="14"/>
+      <c r="H338" s="12"/>
     </row>
     <row r="339" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H339" s="14"/>
+      <c r="H339" s="12"/>
     </row>
     <row r="340" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H340" s="14"/>
+      <c r="H340" s="12"/>
     </row>
     <row r="341" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H341" s="14"/>
+      <c r="H341" s="12"/>
     </row>
     <row r="342" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H342" s="14"/>
+      <c r="H342" s="12"/>
     </row>
     <row r="343" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H343" s="14"/>
+      <c r="H343" s="12"/>
     </row>
     <row r="344" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H344" s="14"/>
+      <c r="H344" s="12"/>
     </row>
     <row r="345" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H345" s="14"/>
+      <c r="H345" s="12"/>
     </row>
     <row r="346" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H346" s="14"/>
+      <c r="H346" s="12"/>
     </row>
     <row r="347" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H347" s="14"/>
+      <c r="H347" s="12"/>
     </row>
     <row r="348" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H348" s="14"/>
+      <c r="H348" s="12"/>
     </row>
     <row r="349" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H349" s="14"/>
+      <c r="H349" s="12"/>
     </row>
     <row r="350" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H350" s="14"/>
+      <c r="H350" s="12"/>
     </row>
     <row r="351" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H351" s="14"/>
+      <c r="H351" s="12"/>
     </row>
     <row r="352" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H352" s="14"/>
+      <c r="H352" s="12"/>
     </row>
     <row r="353" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H353" s="14"/>
+      <c r="H353" s="12"/>
     </row>
     <row r="354" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H354" s="14"/>
+      <c r="H354" s="12"/>
     </row>
     <row r="355" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H355" s="14"/>
+      <c r="H355" s="12"/>
     </row>
     <row r="356" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H356" s="14"/>
+      <c r="H356" s="12"/>
     </row>
     <row r="357" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H357" s="14"/>
+      <c r="H357" s="12"/>
     </row>
     <row r="358" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H358" s="14"/>
+      <c r="H358" s="12"/>
     </row>
     <row r="359" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H359" s="14"/>
+      <c r="H359" s="12"/>
     </row>
     <row r="360" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H360" s="14"/>
+      <c r="H360" s="12"/>
     </row>
     <row r="361" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H361" s="14"/>
+      <c r="H361" s="12"/>
     </row>
     <row r="362" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H362" s="14"/>
+      <c r="H362" s="12"/>
     </row>
     <row r="363" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H363" s="14"/>
+      <c r="H363" s="12"/>
     </row>
     <row r="364" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H364" s="14"/>
+      <c r="H364" s="12"/>
     </row>
     <row r="365" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H365" s="14"/>
+      <c r="H365" s="12"/>
     </row>
     <row r="366" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H366" s="14"/>
+      <c r="H366" s="12"/>
     </row>
     <row r="367" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H367" s="14"/>
+      <c r="H367" s="12"/>
     </row>
     <row r="368" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H368" s="14"/>
+      <c r="H368" s="12"/>
     </row>
     <row r="369" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H369" s="14"/>
+      <c r="H369" s="12"/>
     </row>
     <row r="370" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H370" s="14"/>
+      <c r="H370" s="12"/>
     </row>
     <row r="371" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H371" s="14"/>
+      <c r="H371" s="12"/>
     </row>
     <row r="372" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H372" s="14"/>
+      <c r="H372" s="12"/>
     </row>
     <row r="373" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H373" s="14"/>
+      <c r="H373" s="12"/>
     </row>
     <row r="374" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H374" s="14"/>
+      <c r="H374" s="12"/>
     </row>
     <row r="375" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H375" s="14"/>
+      <c r="H375" s="12"/>
     </row>
     <row r="376" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H376" s="14"/>
+      <c r="H376" s="12"/>
     </row>
     <row r="377" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H377" s="14"/>
+      <c r="H377" s="12"/>
     </row>
     <row r="378" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H378" s="14"/>
+      <c r="H378" s="12"/>
     </row>
     <row r="379" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H379" s="14"/>
+      <c r="H379" s="12"/>
     </row>
     <row r="380" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H380" s="14"/>
+      <c r="H380" s="12"/>
     </row>
     <row r="381" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H381" s="14"/>
+      <c r="H381" s="12"/>
     </row>
     <row r="382" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H382" s="14"/>
+      <c r="H382" s="12"/>
     </row>
     <row r="383" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H383" s="14"/>
+      <c r="H383" s="12"/>
     </row>
     <row r="384" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H384" s="14"/>
+      <c r="H384" s="12"/>
     </row>
     <row r="385" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H385" s="14"/>
+      <c r="H385" s="12"/>
     </row>
     <row r="386" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H386" s="14"/>
+      <c r="H386" s="12"/>
     </row>
     <row r="387" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H387" s="14"/>
+      <c r="H387" s="12"/>
     </row>
     <row r="388" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H388" s="14"/>
+      <c r="H388" s="12"/>
     </row>
     <row r="389" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H389" s="14"/>
+      <c r="H389" s="12"/>
     </row>
     <row r="390" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H390" s="14"/>
+      <c r="H390" s="12"/>
     </row>
     <row r="391" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H391" s="14"/>
+      <c r="H391" s="12"/>
     </row>
     <row r="392" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H392" s="14"/>
+      <c r="H392" s="12"/>
     </row>
     <row r="393" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H393" s="14"/>
+      <c r="H393" s="12"/>
     </row>
     <row r="394" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H394" s="14"/>
+      <c r="H394" s="12"/>
     </row>
     <row r="395" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H395" s="14"/>
+      <c r="H395" s="12"/>
     </row>
     <row r="396" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H396" s="14"/>
+      <c r="H396" s="12"/>
     </row>
     <row r="397" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H397" s="14"/>
+      <c r="H397" s="12"/>
     </row>
     <row r="398" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H398" s="14"/>
+      <c r="H398" s="12"/>
     </row>
     <row r="399" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H399" s="14"/>
+      <c r="H399" s="12"/>
     </row>
     <row r="400" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H400" s="14"/>
+      <c r="H400" s="12"/>
     </row>
     <row r="401" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H401" s="14"/>
+      <c r="H401" s="12"/>
     </row>
     <row r="402" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H402" s="14"/>
+      <c r="H402" s="12"/>
     </row>
     <row r="403" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H403" s="14"/>
+      <c r="H403" s="12"/>
     </row>
     <row r="404" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H404" s="14"/>
+      <c r="H404" s="12"/>
     </row>
     <row r="405" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H405" s="14"/>
+      <c r="H405" s="12"/>
     </row>
     <row r="406" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H406" s="14"/>
+      <c r="H406" s="12"/>
     </row>
     <row r="407" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H407" s="14"/>
+      <c r="H407" s="12"/>
     </row>
     <row r="408" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H408" s="14"/>
+      <c r="H408" s="12"/>
     </row>
     <row r="409" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H409" s="14"/>
+      <c r="H409" s="12"/>
     </row>
     <row r="410" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H410" s="14"/>
+      <c r="H410" s="12"/>
     </row>
     <row r="411" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H411" s="14"/>
+      <c r="H411" s="12"/>
     </row>
     <row r="412" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H412" s="14"/>
+      <c r="H412" s="12"/>
     </row>
     <row r="413" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H413" s="14"/>
+      <c r="H413" s="12"/>
     </row>
     <row r="414" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H414" s="14"/>
+      <c r="H414" s="12"/>
     </row>
     <row r="415" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H415" s="14"/>
+      <c r="H415" s="12"/>
     </row>
     <row r="416" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H416" s="14"/>
+      <c r="H416" s="12"/>
     </row>
     <row r="417" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H417" s="14"/>
+      <c r="H417" s="12"/>
     </row>
     <row r="418" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H418" s="14"/>
+      <c r="H418" s="12"/>
     </row>
     <row r="419" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H419" s="14"/>
+      <c r="H419" s="12"/>
     </row>
     <row r="420" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H420" s="14"/>
+      <c r="H420" s="12"/>
     </row>
     <row r="421" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H421" s="14"/>
+      <c r="H421" s="12"/>
     </row>
     <row r="422" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H422" s="14"/>
+      <c r="H422" s="12"/>
     </row>
     <row r="423" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H423" s="14"/>
+      <c r="H423" s="12"/>
     </row>
     <row r="424" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H424" s="14"/>
+      <c r="H424" s="12"/>
     </row>
     <row r="425" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H425" s="14"/>
+      <c r="H425" s="12"/>
     </row>
     <row r="426" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H426" s="14"/>
+      <c r="H426" s="12"/>
     </row>
     <row r="427" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H427" s="14"/>
+      <c r="H427" s="12"/>
     </row>
     <row r="428" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H428" s="14"/>
+      <c r="H428" s="12"/>
     </row>
     <row r="429" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H429" s="14"/>
+      <c r="H429" s="12"/>
     </row>
     <row r="430" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H430" s="14"/>
+      <c r="H430" s="12"/>
     </row>
     <row r="431" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H431" s="14"/>
+      <c r="H431" s="12"/>
     </row>
     <row r="432" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H432" s="14"/>
+      <c r="H432" s="12"/>
     </row>
     <row r="433" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H433" s="14"/>
+      <c r="H433" s="12"/>
     </row>
     <row r="434" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H434" s="14"/>
+      <c r="H434" s="12"/>
     </row>
     <row r="435" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H435" s="14"/>
+      <c r="H435" s="12"/>
     </row>
     <row r="436" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H436" s="14"/>
+      <c r="H436" s="12"/>
     </row>
     <row r="437" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H437" s="14"/>
+      <c r="H437" s="12"/>
     </row>
     <row r="438" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H438" s="14"/>
+      <c r="H438" s="12"/>
     </row>
     <row r="439" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H439" s="14"/>
+      <c r="H439" s="12"/>
     </row>
     <row r="440" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H440" s="14"/>
+      <c r="H440" s="12"/>
     </row>
     <row r="441" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H441" s="14"/>
+      <c r="H441" s="12"/>
     </row>
     <row r="442" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H442" s="14"/>
+      <c r="H442" s="12"/>
     </row>
     <row r="443" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H443" s="14"/>
+      <c r="H443" s="12"/>
     </row>
     <row r="444" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H444" s="14"/>
+      <c r="H444" s="12"/>
     </row>
     <row r="445" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H445" s="14"/>
+      <c r="H445" s="12"/>
     </row>
     <row r="446" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H446" s="14"/>
+      <c r="H446" s="12"/>
     </row>
     <row r="447" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H447" s="14"/>
+      <c r="H447" s="12"/>
     </row>
     <row r="448" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H448" s="14"/>
+      <c r="H448" s="12"/>
     </row>
     <row r="449" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H449" s="14"/>
+      <c r="H449" s="12"/>
     </row>
     <row r="450" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H450" s="14"/>
+      <c r="H450" s="12"/>
     </row>
     <row r="451" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H451" s="14"/>
+      <c r="H451" s="12"/>
     </row>
     <row r="452" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H452" s="14"/>
+      <c r="H452" s="12"/>
     </row>
     <row r="453" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H453" s="14"/>
+      <c r="H453" s="12"/>
     </row>
     <row r="454" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H454" s="14"/>
+      <c r="H454" s="12"/>
     </row>
     <row r="455" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H455" s="14"/>
+      <c r="H455" s="12"/>
     </row>
     <row r="456" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H456" s="14"/>
+      <c r="H456" s="12"/>
     </row>
     <row r="457" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H457" s="14"/>
+      <c r="H457" s="12"/>
     </row>
     <row r="458" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H458" s="14"/>
+      <c r="H458" s="12"/>
     </row>
     <row r="459" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H459" s="14"/>
+      <c r="H459" s="12"/>
     </row>
     <row r="460" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H460" s="14"/>
+      <c r="H460" s="12"/>
     </row>
     <row r="461" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H461" s="14"/>
+      <c r="H461" s="12"/>
     </row>
     <row r="462" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H462" s="14"/>
+      <c r="H462" s="12"/>
     </row>
     <row r="463" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H463" s="14"/>
+      <c r="H463" s="12"/>
     </row>
     <row r="464" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H464" s="14"/>
+      <c r="H464" s="12"/>
     </row>
     <row r="465" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H465" s="14"/>
+      <c r="H465" s="12"/>
     </row>
     <row r="466" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H466" s="14"/>
+      <c r="H466" s="12"/>
     </row>
     <row r="467" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H467" s="14"/>
+      <c r="H467" s="12"/>
     </row>
     <row r="468" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H468" s="14"/>
+      <c r="H468" s="12"/>
     </row>
     <row r="469" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H469" s="14"/>
+      <c r="H469" s="12"/>
     </row>
     <row r="470" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H470" s="14"/>
+      <c r="H470" s="12"/>
     </row>
     <row r="471" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H471" s="14"/>
+      <c r="H471" s="12"/>
     </row>
     <row r="472" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H472" s="14"/>
+      <c r="H472" s="12"/>
     </row>
     <row r="473" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H473" s="14"/>
+      <c r="H473" s="12"/>
     </row>
     <row r="474" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H474" s="14"/>
+      <c r="H474" s="12"/>
     </row>
     <row r="475" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H475" s="14"/>
+      <c r="H475" s="12"/>
     </row>
     <row r="476" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H476" s="14"/>
+      <c r="H476" s="12"/>
     </row>
     <row r="477" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H477" s="14"/>
+      <c r="H477" s="12"/>
     </row>
     <row r="478" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H478" s="14"/>
+      <c r="H478" s="12"/>
     </row>
     <row r="479" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H479" s="14"/>
+      <c r="H479" s="12"/>
     </row>
     <row r="480" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H480" s="14"/>
+      <c r="H480" s="12"/>
     </row>
     <row r="481" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H481" s="14"/>
+      <c r="H481" s="12"/>
     </row>
     <row r="482" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H482" s="14"/>
+      <c r="H482" s="12"/>
     </row>
     <row r="483" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H483" s="14"/>
+      <c r="H483" s="12"/>
     </row>
     <row r="484" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H484" s="14"/>
+      <c r="H484" s="12"/>
     </row>
     <row r="485" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H485" s="14"/>
+      <c r="H485" s="12"/>
     </row>
     <row r="486" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H486" s="14"/>
+      <c r="H486" s="12"/>
     </row>
     <row r="487" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H487" s="14"/>
+      <c r="H487" s="12"/>
     </row>
     <row r="488" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H488" s="14"/>
+      <c r="H488" s="12"/>
     </row>
     <row r="489" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H489" s="14"/>
+      <c r="H489" s="12"/>
     </row>
     <row r="490" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H490" s="14"/>
+      <c r="H490" s="12"/>
     </row>
     <row r="491" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H491" s="14"/>
+      <c r="H491" s="12"/>
     </row>
     <row r="492" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H492" s="14"/>
+      <c r="H492" s="12"/>
     </row>
     <row r="493" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H493" s="14"/>
+      <c r="H493" s="12"/>
     </row>
     <row r="494" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H494" s="14"/>
+      <c r="H494" s="12"/>
     </row>
     <row r="495" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H495" s="14"/>
+      <c r="H495" s="12"/>
     </row>
     <row r="496" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H496" s="14"/>
+      <c r="H496" s="12"/>
     </row>
     <row r="497" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H497" s="14"/>
+      <c r="H497" s="12"/>
     </row>
     <row r="498" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H498" s="14"/>
+      <c r="H498" s="12"/>
     </row>
     <row r="499" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H499" s="14"/>
+      <c r="H499" s="12"/>
     </row>
     <row r="500" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H500" s="14"/>
+      <c r="H500" s="12"/>
     </row>
     <row r="501" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H501" s="14"/>
+      <c r="H501" s="12"/>
     </row>
     <row r="502" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H502" s="14"/>
+      <c r="H502" s="12"/>
     </row>
     <row r="503" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H503" s="14"/>
+      <c r="H503" s="12"/>
     </row>
     <row r="504" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H504" s="14"/>
+      <c r="H504" s="12"/>
     </row>
     <row r="505" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H505" s="14"/>
+      <c r="H505" s="12"/>
     </row>
     <row r="506" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H506" s="14"/>
+      <c r="H506" s="12"/>
     </row>
     <row r="507" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H507" s="14"/>
+      <c r="H507" s="12"/>
     </row>
     <row r="508" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H508" s="14"/>
+      <c r="H508" s="12"/>
     </row>
     <row r="509" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H509" s="14"/>
+      <c r="H509" s="12"/>
     </row>
     <row r="510" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H510" s="14"/>
+      <c r="H510" s="12"/>
     </row>
     <row r="511" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H511" s="14"/>
+      <c r="H511" s="12"/>
     </row>
     <row r="512" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H512" s="14"/>
+      <c r="H512" s="12"/>
     </row>
     <row r="513" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H513" s="14"/>
+      <c r="H513" s="12"/>
     </row>
     <row r="514" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H514" s="14"/>
+      <c r="H514" s="12"/>
     </row>
     <row r="515" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H515" s="14"/>
+      <c r="H515" s="12"/>
     </row>
     <row r="516" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H516" s="14"/>
+      <c r="H516" s="12"/>
     </row>
     <row r="517" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H517" s="14"/>
+      <c r="H517" s="12"/>
     </row>
     <row r="518" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H518" s="14"/>
+      <c r="H518" s="12"/>
     </row>
     <row r="519" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H519" s="14"/>
+      <c r="H519" s="12"/>
     </row>
     <row r="520" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H520" s="14"/>
+      <c r="H520" s="12"/>
     </row>
     <row r="521" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H521" s="14"/>
+      <c r="H521" s="12"/>
     </row>
     <row r="522" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H522" s="14"/>
+      <c r="H522" s="12"/>
     </row>
     <row r="523" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H523" s="14"/>
+      <c r="H523" s="12"/>
     </row>
     <row r="524" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H524" s="14"/>
+      <c r="H524" s="12"/>
     </row>
     <row r="525" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H525" s="14"/>
+      <c r="H525" s="12"/>
     </row>
     <row r="526" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H526" s="14"/>
+      <c r="H526" s="12"/>
     </row>
     <row r="527" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H527" s="14"/>
+      <c r="H527" s="12"/>
     </row>
     <row r="528" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H528" s="14"/>
+      <c r="H528" s="12"/>
     </row>
     <row r="529" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H529" s="14"/>
+      <c r="H529" s="12"/>
     </row>
     <row r="530" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H530" s="14"/>
+      <c r="H530" s="12"/>
     </row>
     <row r="531" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H531" s="14"/>
+      <c r="H531" s="12"/>
     </row>
     <row r="532" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H532" s="14"/>
+      <c r="H532" s="12"/>
     </row>
     <row r="533" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H533" s="14"/>
+      <c r="H533" s="12"/>
     </row>
     <row r="534" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H534" s="14"/>
+      <c r="H534" s="12"/>
     </row>
     <row r="535" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H535" s="14"/>
+      <c r="H535" s="12"/>
     </row>
     <row r="536" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H536" s="14"/>
+      <c r="H536" s="12"/>
     </row>
     <row r="537" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H537" s="14"/>
+      <c r="H537" s="12"/>
     </row>
     <row r="538" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H538" s="14"/>
+      <c r="H538" s="12"/>
     </row>
     <row r="539" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H539" s="14"/>
+      <c r="H539" s="12"/>
     </row>
     <row r="540" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H540" s="14"/>
+      <c r="H540" s="12"/>
     </row>
     <row r="541" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H541" s="14"/>
+      <c r="H541" s="12"/>
     </row>
     <row r="542" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H542" s="14"/>
+      <c r="H542" s="12"/>
     </row>
     <row r="543" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H543" s="14"/>
+      <c r="H543" s="12"/>
     </row>
     <row r="544" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H544" s="14"/>
+      <c r="H544" s="12"/>
     </row>
     <row r="545" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H545" s="14"/>
+      <c r="H545" s="12"/>
     </row>
     <row r="546" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H546" s="14"/>
+      <c r="H546" s="12"/>
     </row>
     <row r="547" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H547" s="14"/>
+      <c r="H547" s="12"/>
     </row>
     <row r="548" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H548" s="14"/>
+      <c r="H548" s="12"/>
     </row>
     <row r="549" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H549" s="14"/>
+      <c r="H549" s="12"/>
     </row>
     <row r="550" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H550" s="14"/>
+      <c r="H550" s="12"/>
     </row>
     <row r="551" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H551" s="14"/>
+      <c r="H551" s="12"/>
     </row>
     <row r="552" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H552" s="14"/>
+      <c r="H552" s="12"/>
     </row>
     <row r="553" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H553" s="14"/>
+      <c r="H553" s="12"/>
     </row>
     <row r="554" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H554" s="14"/>
+      <c r="H554" s="12"/>
     </row>
     <row r="555" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H555" s="14"/>
+      <c r="H555" s="12"/>
     </row>
     <row r="556" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H556" s="14"/>
+      <c r="H556" s="12"/>
     </row>
     <row r="557" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H557" s="14"/>
+      <c r="H557" s="12"/>
     </row>
     <row r="558" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H558" s="14"/>
+      <c r="H558" s="12"/>
     </row>
     <row r="559" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H559" s="14"/>
+      <c r="H559" s="12"/>
     </row>
     <row r="560" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H560" s="14"/>
+      <c r="H560" s="12"/>
     </row>
     <row r="561" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H561" s="14"/>
+      <c r="H561" s="12"/>
     </row>
     <row r="562" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H562" s="14"/>
+      <c r="H562" s="12"/>
     </row>
     <row r="563" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H563" s="14"/>
+      <c r="H563" s="12"/>
     </row>
     <row r="564" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H564" s="14"/>
+      <c r="H564" s="12"/>
     </row>
     <row r="565" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H565" s="14"/>
+      <c r="H565" s="12"/>
     </row>
     <row r="566" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H566" s="14"/>
+      <c r="H566" s="12"/>
     </row>
     <row r="567" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H567" s="14"/>
+      <c r="H567" s="12"/>
     </row>
     <row r="568" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H568" s="14"/>
+      <c r="H568" s="12"/>
     </row>
     <row r="569" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H569" s="14"/>
+      <c r="H569" s="12"/>
     </row>
     <row r="570" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H570" s="14"/>
+      <c r="H570" s="12"/>
     </row>
     <row r="571" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H571" s="14"/>
+      <c r="H571" s="12"/>
     </row>
     <row r="572" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H572" s="14"/>
+      <c r="H572" s="12"/>
     </row>
     <row r="573" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H573" s="14"/>
+      <c r="H573" s="12"/>
     </row>
     <row r="574" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H574" s="14"/>
+      <c r="H574" s="12"/>
     </row>
     <row r="575" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H575" s="14"/>
+      <c r="H575" s="12"/>
     </row>
     <row r="576" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H576" s="14"/>
+      <c r="H576" s="12"/>
     </row>
     <row r="577" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H577" s="14"/>
+      <c r="H577" s="12"/>
     </row>
     <row r="578" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H578" s="14"/>
+      <c r="H578" s="12"/>
     </row>
     <row r="579" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H579" s="14"/>
+      <c r="H579" s="12"/>
     </row>
     <row r="580" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H580" s="14"/>
+      <c r="H580" s="12"/>
     </row>
     <row r="581" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H581" s="14"/>
+      <c r="H581" s="12"/>
     </row>
     <row r="582" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H582" s="14"/>
+      <c r="H582" s="12"/>
     </row>
     <row r="583" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H583" s="14"/>
+      <c r="H583" s="12"/>
     </row>
     <row r="584" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H584" s="14"/>
+      <c r="H584" s="12"/>
     </row>
     <row r="585" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H585" s="14"/>
+      <c r="H585" s="12"/>
     </row>
     <row r="586" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H586" s="14"/>
+      <c r="H586" s="12"/>
     </row>
     <row r="587" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H587" s="14"/>
+      <c r="H587" s="12"/>
     </row>
     <row r="588" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H588" s="14"/>
+      <c r="H588" s="12"/>
     </row>
     <row r="589" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H589" s="14"/>
+      <c r="H589" s="12"/>
     </row>
     <row r="590" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H590" s="14"/>
+      <c r="H590" s="12"/>
     </row>
     <row r="591" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H591" s="14"/>
+      <c r="H591" s="12"/>
     </row>
     <row r="592" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H592" s="14"/>
+      <c r="H592" s="12"/>
     </row>
     <row r="593" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H593" s="14"/>
+      <c r="H593" s="12"/>
     </row>
     <row r="594" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H594" s="14"/>
+      <c r="H594" s="12"/>
     </row>
     <row r="595" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H595" s="14"/>
+      <c r="H595" s="12"/>
     </row>
     <row r="596" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H596" s="14"/>
+      <c r="H596" s="12"/>
     </row>
     <row r="597" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H597" s="14"/>
+      <c r="H597" s="12"/>
     </row>
     <row r="598" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H598" s="14"/>
+      <c r="H598" s="12"/>
     </row>
     <row r="599" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H599" s="14"/>
+      <c r="H599" s="12"/>
     </row>
     <row r="600" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H600" s="14"/>
+      <c r="H600" s="12"/>
     </row>
     <row r="601" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H601" s="14"/>
+      <c r="H601" s="12"/>
     </row>
     <row r="602" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H602" s="14"/>
+      <c r="H602" s="12"/>
     </row>
     <row r="603" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H603" s="14"/>
+      <c r="H603" s="12"/>
     </row>
     <row r="604" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H604" s="14"/>
+      <c r="H604" s="12"/>
     </row>
     <row r="605" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H605" s="14"/>
+      <c r="H605" s="12"/>
     </row>
     <row r="606" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H606" s="14"/>
+      <c r="H606" s="12"/>
     </row>
     <row r="607" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H607" s="14"/>
+      <c r="H607" s="12"/>
     </row>
     <row r="608" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H608" s="14"/>
+      <c r="H608" s="12"/>
     </row>
     <row r="609" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H609" s="14"/>
+      <c r="H609" s="12"/>
     </row>
     <row r="610" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H610" s="14"/>
+      <c r="H610" s="12"/>
     </row>
     <row r="611" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H611" s="14"/>
+      <c r="H611" s="12"/>
     </row>
     <row r="612" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H612" s="14"/>
+      <c r="H612" s="12"/>
     </row>
     <row r="613" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H613" s="14"/>
+      <c r="H613" s="12"/>
     </row>
     <row r="614" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H614" s="14"/>
+      <c r="H614" s="12"/>
     </row>
     <row r="615" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H615" s="14"/>
+      <c r="H615" s="12"/>
     </row>
     <row r="616" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H616" s="14"/>
+      <c r="H616" s="12"/>
     </row>
     <row r="617" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H617" s="14"/>
+      <c r="H617" s="12"/>
     </row>
     <row r="618" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H618" s="14"/>
+      <c r="H618" s="12"/>
     </row>
     <row r="619" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H619" s="14"/>
+      <c r="H619" s="12"/>
     </row>
     <row r="620" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H620" s="14"/>
+      <c r="H620" s="12"/>
     </row>
     <row r="621" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H621" s="14"/>
+      <c r="H621" s="12"/>
     </row>
     <row r="622" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H622" s="14"/>
+      <c r="H622" s="12"/>
     </row>
     <row r="623" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H623" s="14"/>
+      <c r="H623" s="12"/>
     </row>
     <row r="624" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H624" s="14"/>
+      <c r="H624" s="12"/>
     </row>
     <row r="625" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H625" s="14"/>
+      <c r="H625" s="12"/>
     </row>
     <row r="626" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H626" s="14"/>
+      <c r="H626" s="12"/>
     </row>
     <row r="627" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H627" s="14"/>
+      <c r="H627" s="12"/>
     </row>
     <row r="628" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H628" s="14"/>
+      <c r="H628" s="12"/>
     </row>
     <row r="629" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H629" s="14"/>
+      <c r="H629" s="12"/>
     </row>
     <row r="630" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H630" s="14"/>
+      <c r="H630" s="12"/>
     </row>
     <row r="631" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H631" s="14"/>
+      <c r="H631" s="12"/>
     </row>
     <row r="632" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H632" s="14"/>
+      <c r="H632" s="12"/>
     </row>
     <row r="633" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H633" s="14"/>
+      <c r="H633" s="12"/>
     </row>
     <row r="634" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H634" s="14"/>
+      <c r="H634" s="12"/>
     </row>
     <row r="635" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H635" s="14"/>
+      <c r="H635" s="12"/>
     </row>
     <row r="636" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H636" s="14"/>
+      <c r="H636" s="12"/>
     </row>
     <row r="637" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H637" s="14"/>
+      <c r="H637" s="12"/>
     </row>
     <row r="638" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H638" s="14"/>
+      <c r="H638" s="12"/>
     </row>
     <row r="639" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H639" s="14"/>
+      <c r="H639" s="12"/>
     </row>
     <row r="640" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H640" s="14"/>
+      <c r="H640" s="12"/>
     </row>
     <row r="641" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H641" s="14"/>
+      <c r="H641" s="12"/>
     </row>
     <row r="642" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H642" s="14"/>
+      <c r="H642" s="12"/>
     </row>
     <row r="643" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H643" s="14"/>
+      <c r="H643" s="12"/>
     </row>
     <row r="644" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H644" s="14"/>
+      <c r="H644" s="12"/>
     </row>
     <row r="645" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H645" s="14"/>
+      <c r="H645" s="12"/>
     </row>
     <row r="646" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H646" s="14"/>
+      <c r="H646" s="12"/>
     </row>
     <row r="647" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H647" s="14"/>
+      <c r="H647" s="12"/>
     </row>
     <row r="648" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H648" s="14"/>
+      <c r="H648" s="12"/>
     </row>
     <row r="649" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H649" s="14"/>
+      <c r="H649" s="12"/>
     </row>
     <row r="650" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H650" s="14"/>
+      <c r="H650" s="12"/>
     </row>
     <row r="651" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H651" s="14"/>
+      <c r="H651" s="12"/>
     </row>
     <row r="652" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H652" s="14"/>
+      <c r="H652" s="12"/>
     </row>
     <row r="653" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H653" s="14"/>
+      <c r="H653" s="12"/>
     </row>
     <row r="654" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H654" s="14"/>
+      <c r="H654" s="12"/>
     </row>
     <row r="655" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H655" s="14"/>
+      <c r="H655" s="12"/>
     </row>
     <row r="656" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H656" s="14"/>
+      <c r="H656" s="12"/>
     </row>
     <row r="657" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H657" s="14"/>
+      <c r="H657" s="12"/>
     </row>
     <row r="658" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H658" s="14"/>
+      <c r="H658" s="12"/>
     </row>
     <row r="659" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H659" s="14"/>
+      <c r="H659" s="12"/>
     </row>
     <row r="660" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H660" s="14"/>
+      <c r="H660" s="12"/>
     </row>
     <row r="661" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H661" s="14"/>
+      <c r="H661" s="12"/>
     </row>
     <row r="662" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H662" s="14"/>
+      <c r="H662" s="12"/>
     </row>
     <row r="663" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H663" s="14"/>
+      <c r="H663" s="12"/>
     </row>
     <row r="664" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H664" s="14"/>
+      <c r="H664" s="12"/>
     </row>
     <row r="665" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H665" s="14"/>
+      <c r="H665" s="12"/>
     </row>
     <row r="666" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H666" s="14"/>
+      <c r="H666" s="12"/>
     </row>
     <row r="667" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H667" s="14"/>
+      <c r="H667" s="12"/>
     </row>
     <row r="668" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H668" s="14"/>
+      <c r="H668" s="12"/>
     </row>
     <row r="669" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H669" s="14"/>
+      <c r="H669" s="12"/>
     </row>
     <row r="670" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H670" s="14"/>
+      <c r="H670" s="12"/>
     </row>
     <row r="671" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H671" s="14"/>
+      <c r="H671" s="12"/>
     </row>
     <row r="672" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H672" s="14"/>
+      <c r="H672" s="12"/>
     </row>
     <row r="673" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H673" s="14"/>
+      <c r="H673" s="12"/>
     </row>
     <row r="674" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H674" s="14"/>
+      <c r="H674" s="12"/>
     </row>
     <row r="675" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H675" s="14"/>
+      <c r="H675" s="12"/>
     </row>
     <row r="676" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H676" s="14"/>
+      <c r="H676" s="12"/>
     </row>
     <row r="677" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H677" s="14"/>
+      <c r="H677" s="12"/>
     </row>
     <row r="678" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H678" s="14"/>
+      <c r="H678" s="12"/>
     </row>
     <row r="679" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H679" s="14"/>
+      <c r="H679" s="12"/>
     </row>
     <row r="680" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H680" s="14"/>
+      <c r="H680" s="12"/>
     </row>
     <row r="681" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H681" s="14"/>
+      <c r="H681" s="12"/>
     </row>
     <row r="682" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H682" s="14"/>
+      <c r="H682" s="12"/>
     </row>
     <row r="683" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H683" s="14"/>
+      <c r="H683" s="12"/>
     </row>
     <row r="684" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H684" s="14"/>
+      <c r="H684" s="12"/>
     </row>
     <row r="685" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H685" s="14"/>
+      <c r="H685" s="12"/>
     </row>
     <row r="686" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H686" s="14"/>
+      <c r="H686" s="12"/>
     </row>
     <row r="687" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H687" s="14"/>
+      <c r="H687" s="12"/>
     </row>
     <row r="688" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H688" s="14"/>
+      <c r="H688" s="12"/>
     </row>
     <row r="689" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H689" s="14"/>
+      <c r="H689" s="12"/>
     </row>
     <row r="690" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H690" s="14"/>
+      <c r="H690" s="12"/>
     </row>
     <row r="691" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H691" s="14"/>
+      <c r="H691" s="12"/>
     </row>
     <row r="692" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H692" s="14"/>
+      <c r="H692" s="12"/>
     </row>
     <row r="693" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H693" s="14"/>
+      <c r="H693" s="12"/>
     </row>
     <row r="694" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H694" s="14"/>
+      <c r="H694" s="12"/>
     </row>
     <row r="695" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H695" s="14"/>
+      <c r="H695" s="12"/>
     </row>
     <row r="696" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H696" s="14"/>
+      <c r="H696" s="12"/>
     </row>
     <row r="697" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H697" s="14"/>
+      <c r="H697" s="12"/>
     </row>
     <row r="698" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H698" s="14"/>
+      <c r="H698" s="12"/>
     </row>
     <row r="699" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H699" s="14"/>
+      <c r="H699" s="12"/>
     </row>
     <row r="700" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H700" s="14"/>
+      <c r="H700" s="12"/>
     </row>
     <row r="701" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H701" s="14"/>
+      <c r="H701" s="12"/>
     </row>
     <row r="702" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H702" s="14"/>
+      <c r="H702" s="12"/>
     </row>
     <row r="703" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H703" s="14"/>
+      <c r="H703" s="12"/>
     </row>
     <row r="704" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H704" s="14"/>
+      <c r="H704" s="12"/>
     </row>
     <row r="705" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H705" s="14"/>
+      <c r="H705" s="12"/>
     </row>
     <row r="706" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H706" s="14"/>
+      <c r="H706" s="12"/>
     </row>
     <row r="707" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H707" s="14"/>
+      <c r="H707" s="12"/>
     </row>
     <row r="708" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H708" s="14"/>
+      <c r="H708" s="12"/>
     </row>
     <row r="709" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H709" s="14"/>
+      <c r="H709" s="12"/>
     </row>
     <row r="710" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H710" s="14"/>
+      <c r="H710" s="12"/>
     </row>
     <row r="711" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H711" s="14"/>
+      <c r="H711" s="12"/>
     </row>
     <row r="712" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H712" s="14"/>
+      <c r="H712" s="12"/>
     </row>
     <row r="713" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H713" s="14"/>
+      <c r="H713" s="12"/>
     </row>
     <row r="714" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H714" s="14"/>
+      <c r="H714" s="12"/>
     </row>
     <row r="715" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H715" s="14"/>
+      <c r="H715" s="12"/>
     </row>
     <row r="716" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H716" s="14"/>
+      <c r="H716" s="12"/>
     </row>
     <row r="717" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H717" s="14"/>
+      <c r="H717" s="12"/>
     </row>
     <row r="718" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H718" s="14"/>
+      <c r="H718" s="12"/>
     </row>
     <row r="719" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H719" s="14"/>
+      <c r="H719" s="12"/>
     </row>
     <row r="720" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H720" s="14"/>
+      <c r="H720" s="12"/>
     </row>
     <row r="721" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H721" s="14"/>
+      <c r="H721" s="12"/>
     </row>
     <row r="722" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H722" s="14"/>
+      <c r="H722" s="12"/>
     </row>
     <row r="723" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H723" s="14"/>
+      <c r="H723" s="12"/>
     </row>
     <row r="724" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H724" s="14"/>
+      <c r="H724" s="12"/>
     </row>
     <row r="725" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H725" s="14"/>
+      <c r="H725" s="12"/>
     </row>
     <row r="726" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H726" s="14"/>
+      <c r="H726" s="12"/>
     </row>
     <row r="727" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H727" s="14"/>
+      <c r="H727" s="12"/>
     </row>
     <row r="728" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H728" s="14"/>
+      <c r="H728" s="12"/>
     </row>
     <row r="729" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H729" s="14"/>
+      <c r="H729" s="12"/>
     </row>
     <row r="730" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H730" s="14"/>
+      <c r="H730" s="12"/>
     </row>
     <row r="731" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H731" s="14"/>
+      <c r="H731" s="12"/>
     </row>
     <row r="732" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H732" s="14"/>
+      <c r="H732" s="12"/>
     </row>
     <row r="733" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H733" s="14"/>
+      <c r="H733" s="12"/>
     </row>
     <row r="734" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H734" s="14"/>
+      <c r="H734" s="12"/>
     </row>
     <row r="735" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H735" s="14"/>
+      <c r="H735" s="12"/>
     </row>
     <row r="736" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H736" s="14"/>
+      <c r="H736" s="12"/>
     </row>
     <row r="737" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H737" s="14"/>
+      <c r="H737" s="12"/>
     </row>
     <row r="738" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H738" s="14"/>
+      <c r="H738" s="12"/>
     </row>
     <row r="739" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H739" s="14"/>
+      <c r="H739" s="12"/>
     </row>
     <row r="740" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H740" s="14"/>
+      <c r="H740" s="12"/>
     </row>
     <row r="741" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H741" s="14"/>
+      <c r="H741" s="12"/>
     </row>
     <row r="742" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H742" s="14"/>
+      <c r="H742" s="12"/>
     </row>
     <row r="743" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H743" s="14"/>
+      <c r="H743" s="12"/>
     </row>
     <row r="744" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H744" s="14"/>
+      <c r="H744" s="12"/>
     </row>
     <row r="745" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H745" s="14"/>
+      <c r="H745" s="12"/>
     </row>
     <row r="746" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H746" s="14"/>
+      <c r="H746" s="12"/>
     </row>
     <row r="747" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H747" s="14"/>
+      <c r="H747" s="12"/>
     </row>
     <row r="748" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H748" s="14"/>
+      <c r="H748" s="12"/>
     </row>
     <row r="749" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H749" s="14"/>
+      <c r="H749" s="12"/>
     </row>
     <row r="750" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H750" s="14"/>
+      <c r="H750" s="12"/>
     </row>
     <row r="751" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H751" s="14"/>
+      <c r="H751" s="12"/>
     </row>
     <row r="752" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H752" s="14"/>
+      <c r="H752" s="12"/>
     </row>
     <row r="753" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H753" s="14"/>
+      <c r="H753" s="12"/>
     </row>
     <row r="754" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H754" s="14"/>
+      <c r="H754" s="12"/>
     </row>
     <row r="755" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H755" s="14"/>
+      <c r="H755" s="12"/>
     </row>
     <row r="756" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H756" s="14"/>
+      <c r="H756" s="12"/>
     </row>
     <row r="757" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H757" s="14"/>
+      <c r="H757" s="12"/>
     </row>
     <row r="758" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H758" s="14"/>
+      <c r="H758" s="12"/>
     </row>
     <row r="759" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H759" s="14"/>
+      <c r="H759" s="12"/>
     </row>
     <row r="760" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H760" s="14"/>
+      <c r="H760" s="12"/>
     </row>
     <row r="761" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H761" s="14"/>
+      <c r="H761" s="12"/>
     </row>
     <row r="762" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H762" s="14"/>
+      <c r="H762" s="12"/>
     </row>
     <row r="763" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H763" s="14"/>
+      <c r="H763" s="12"/>
     </row>
     <row r="764" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H764" s="14"/>
+      <c r="H764" s="12"/>
     </row>
     <row r="765" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H765" s="14"/>
+      <c r="H765" s="12"/>
     </row>
     <row r="766" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H766" s="14"/>
+      <c r="H766" s="12"/>
     </row>
     <row r="767" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H767" s="14"/>
+      <c r="H767" s="12"/>
     </row>
     <row r="768" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H768" s="14"/>
+      <c r="H768" s="12"/>
     </row>
     <row r="769" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H769" s="14"/>
+      <c r="H769" s="12"/>
     </row>
     <row r="770" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H770" s="14"/>
+      <c r="H770" s="12"/>
     </row>
     <row r="771" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H771" s="14"/>
+      <c r="H771" s="12"/>
     </row>
     <row r="772" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H772" s="14"/>
+      <c r="H772" s="12"/>
     </row>
     <row r="773" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H773" s="14"/>
+      <c r="H773" s="12"/>
     </row>
     <row r="774" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H774" s="14"/>
+      <c r="H774" s="12"/>
     </row>
     <row r="775" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H775" s="14"/>
+      <c r="H775" s="12"/>
     </row>
     <row r="776" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H776" s="14"/>
+      <c r="H776" s="12"/>
     </row>
     <row r="777" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H777" s="14"/>
+      <c r="H777" s="12"/>
     </row>
     <row r="778" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H778" s="14"/>
+      <c r="H778" s="12"/>
     </row>
     <row r="779" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H779" s="14"/>
+      <c r="H779" s="12"/>
     </row>
     <row r="780" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H780" s="14"/>
+      <c r="H780" s="12"/>
     </row>
     <row r="781" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H781" s="14"/>
+      <c r="H781" s="12"/>
     </row>
     <row r="782" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H782" s="14"/>
+      <c r="H782" s="12"/>
     </row>
     <row r="783" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H783" s="14"/>
+      <c r="H783" s="12"/>
     </row>
     <row r="784" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H784" s="14"/>
+      <c r="H784" s="12"/>
     </row>
     <row r="785" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H785" s="14"/>
+      <c r="H785" s="12"/>
     </row>
     <row r="786" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H786" s="14"/>
+      <c r="H786" s="12"/>
     </row>
     <row r="787" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H787" s="14"/>
+      <c r="H787" s="12"/>
     </row>
     <row r="788" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H788" s="14"/>
+      <c r="H788" s="12"/>
     </row>
     <row r="789" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H789" s="14"/>
+      <c r="H789" s="12"/>
     </row>
     <row r="790" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H790" s="14"/>
+      <c r="H790" s="12"/>
     </row>
     <row r="791" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H791" s="14"/>
+      <c r="H791" s="12"/>
     </row>
     <row r="792" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H792" s="14"/>
+      <c r="H792" s="12"/>
     </row>
     <row r="793" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H793" s="14"/>
+      <c r="H793" s="12"/>
     </row>
     <row r="794" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H794" s="14"/>
+      <c r="H794" s="12"/>
     </row>
     <row r="795" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H795" s="14"/>
+      <c r="H795" s="12"/>
     </row>
     <row r="796" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H796" s="14"/>
+      <c r="H796" s="12"/>
     </row>
     <row r="797" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H797" s="14"/>
+      <c r="H797" s="12"/>
     </row>
     <row r="798" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H798" s="14"/>
+      <c r="H798" s="12"/>
     </row>
     <row r="799" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H799" s="14"/>
+      <c r="H799" s="12"/>
     </row>
     <row r="800" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H800" s="14"/>
+      <c r="H800" s="12"/>
     </row>
     <row r="801" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H801" s="14"/>
+      <c r="H801" s="12"/>
     </row>
     <row r="802" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H802" s="14"/>
+      <c r="H802" s="12"/>
     </row>
     <row r="803" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H803" s="14"/>
+      <c r="H803" s="12"/>
     </row>
     <row r="804" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H804" s="14"/>
+      <c r="H804" s="12"/>
     </row>
     <row r="805" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H805" s="14"/>
+      <c r="H805" s="12"/>
     </row>
     <row r="806" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H806" s="14"/>
+      <c r="H806" s="12"/>
     </row>
     <row r="807" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H807" s="14"/>
+      <c r="H807" s="12"/>
     </row>
     <row r="808" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H808" s="14"/>
+      <c r="H808" s="12"/>
     </row>
     <row r="809" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H809" s="14"/>
+      <c r="H809" s="12"/>
     </row>
     <row r="810" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H810" s="14"/>
+      <c r="H810" s="12"/>
     </row>
     <row r="811" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H811" s="14"/>
+      <c r="H811" s="12"/>
     </row>
     <row r="812" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H812" s="14"/>
+      <c r="H812" s="12"/>
     </row>
     <row r="813" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H813" s="14"/>
+      <c r="H813" s="12"/>
     </row>
     <row r="814" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H814" s="14"/>
+      <c r="H814" s="12"/>
     </row>
     <row r="815" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H815" s="14"/>
+      <c r="H815" s="12"/>
     </row>
     <row r="816" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H816" s="14"/>
+      <c r="H816" s="12"/>
     </row>
     <row r="817" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H817" s="14"/>
+      <c r="H817" s="12"/>
     </row>
     <row r="818" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H818" s="14"/>
+      <c r="H818" s="12"/>
     </row>
     <row r="819" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H819" s="14"/>
+      <c r="H819" s="12"/>
     </row>
     <row r="820" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H820" s="14"/>
+      <c r="H820" s="12"/>
     </row>
     <row r="821" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H821" s="14"/>
+      <c r="H821" s="12"/>
     </row>
     <row r="822" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H822" s="14"/>
+      <c r="H822" s="12"/>
     </row>
     <row r="823" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H823" s="14"/>
+      <c r="H823" s="12"/>
     </row>
     <row r="824" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H824" s="14"/>
+      <c r="H824" s="12"/>
     </row>
     <row r="825" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H825" s="14"/>
+      <c r="H825" s="12"/>
     </row>
     <row r="826" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H826" s="14"/>
+      <c r="H826" s="12"/>
     </row>
     <row r="827" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H827" s="14"/>
+      <c r="H827" s="12"/>
     </row>
     <row r="828" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H828" s="14"/>
+      <c r="H828" s="12"/>
     </row>
     <row r="829" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H829" s="14"/>
+      <c r="H829" s="12"/>
     </row>
     <row r="830" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H830" s="14"/>
+      <c r="H830" s="12"/>
     </row>
     <row r="831" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H831" s="14"/>
+      <c r="H831" s="12"/>
     </row>
     <row r="832" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H832" s="14"/>
+      <c r="H832" s="12"/>
     </row>
     <row r="833" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H833" s="14"/>
+      <c r="H833" s="12"/>
     </row>
     <row r="834" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H834" s="14"/>
+      <c r="H834" s="12"/>
     </row>
     <row r="835" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H835" s="14"/>
+      <c r="H835" s="12"/>
     </row>
     <row r="836" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H836" s="14"/>
+      <c r="H836" s="12"/>
     </row>
     <row r="837" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H837" s="14"/>
+      <c r="H837" s="12"/>
     </row>
     <row r="838" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H838" s="14"/>
+      <c r="H838" s="12"/>
     </row>
     <row r="839" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H839" s="14"/>
+      <c r="H839" s="12"/>
     </row>
     <row r="840" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H840" s="14"/>
+      <c r="H840" s="12"/>
     </row>
     <row r="841" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H841" s="14"/>
+      <c r="H841" s="12"/>
     </row>
     <row r="842" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H842" s="14"/>
+      <c r="H842" s="12"/>
     </row>
     <row r="843" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H843" s="14"/>
+      <c r="H843" s="12"/>
     </row>
     <row r="844" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H844" s="14"/>
+      <c r="H844" s="12"/>
     </row>
     <row r="845" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H845" s="14"/>
+      <c r="H845" s="12"/>
     </row>
     <row r="846" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H846" s="14"/>
+      <c r="H846" s="12"/>
     </row>
     <row r="847" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H847" s="14"/>
+      <c r="H847" s="12"/>
     </row>
     <row r="848" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H848" s="14"/>
+      <c r="H848" s="12"/>
     </row>
     <row r="849" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H849" s="14"/>
+      <c r="H849" s="12"/>
     </row>
     <row r="850" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H850" s="14"/>
+      <c r="H850" s="12"/>
     </row>
     <row r="851" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H851" s="14"/>
+      <c r="H851" s="12"/>
     </row>
     <row r="852" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H852" s="14"/>
+      <c r="H852" s="12"/>
     </row>
     <row r="853" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H853" s="14"/>
+      <c r="H853" s="12"/>
     </row>
     <row r="854" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H854" s="14"/>
+      <c r="H854" s="12"/>
     </row>
     <row r="855" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H855" s="14"/>
+      <c r="H855" s="12"/>
     </row>
     <row r="856" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H856" s="14"/>
+      <c r="H856" s="12"/>
     </row>
     <row r="857" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H857" s="14"/>
+      <c r="H857" s="12"/>
     </row>
     <row r="858" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H858" s="14"/>
+      <c r="H858" s="12"/>
     </row>
     <row r="859" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H859" s="14"/>
+      <c r="H859" s="12"/>
     </row>
     <row r="860" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H860" s="14"/>
+      <c r="H860" s="12"/>
     </row>
     <row r="861" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H861" s="14"/>
+      <c r="H861" s="12"/>
     </row>
     <row r="862" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H862" s="14"/>
+      <c r="H862" s="12"/>
     </row>
     <row r="863" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H863" s="14"/>
+      <c r="H863" s="12"/>
     </row>
     <row r="864" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H864" s="14"/>
+      <c r="H864" s="12"/>
     </row>
     <row r="865" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H865" s="14"/>
+      <c r="H865" s="12"/>
     </row>
     <row r="866" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H866" s="14"/>
+      <c r="H866" s="12"/>
     </row>
     <row r="867" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H867" s="14"/>
+      <c r="H867" s="12"/>
     </row>
     <row r="868" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H868" s="14"/>
+      <c r="H868" s="12"/>
     </row>
     <row r="869" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H869" s="14"/>
+      <c r="H869" s="12"/>
     </row>
     <row r="870" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H870" s="14"/>
+      <c r="H870" s="12"/>
     </row>
     <row r="871" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H871" s="14"/>
+      <c r="H871" s="12"/>
     </row>
     <row r="872" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H872" s="14"/>
+      <c r="H872" s="12"/>
     </row>
     <row r="873" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H873" s="14"/>
+      <c r="H873" s="12"/>
     </row>
     <row r="874" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H874" s="14"/>
+      <c r="H874" s="12"/>
     </row>
     <row r="875" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H875" s="14"/>
+      <c r="H875" s="12"/>
     </row>
     <row r="876" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H876" s="14"/>
+      <c r="H876" s="12"/>
     </row>
     <row r="877" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H877" s="14"/>
+      <c r="H877" s="12"/>
     </row>
     <row r="878" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H878" s="14"/>
+      <c r="H878" s="12"/>
     </row>
     <row r="879" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H879" s="14"/>
+      <c r="H879" s="12"/>
     </row>
     <row r="880" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H880" s="14"/>
+      <c r="H880" s="12"/>
     </row>
     <row r="881" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H881" s="14"/>
+      <c r="H881" s="12"/>
     </row>
     <row r="882" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H882" s="14"/>
+      <c r="H882" s="12"/>
     </row>
     <row r="883" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H883" s="14"/>
+      <c r="H883" s="12"/>
     </row>
     <row r="884" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H884" s="14"/>
+      <c r="H884" s="12"/>
     </row>
     <row r="885" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H885" s="14"/>
+      <c r="H885" s="12"/>
     </row>
     <row r="886" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H886" s="14"/>
+      <c r="H886" s="12"/>
     </row>
     <row r="887" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H887" s="14"/>
+      <c r="H887" s="12"/>
     </row>
     <row r="888" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H888" s="14"/>
+      <c r="H888" s="12"/>
     </row>
     <row r="889" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H889" s="14"/>
+      <c r="H889" s="12"/>
     </row>
     <row r="890" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H890" s="14"/>
+      <c r="H890" s="12"/>
     </row>
     <row r="891" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H891" s="14"/>
+      <c r="H891" s="12"/>
     </row>
     <row r="892" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H892" s="14"/>
+      <c r="H892" s="12"/>
     </row>
     <row r="893" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H893" s="14"/>
+      <c r="H893" s="12"/>
     </row>
     <row r="894" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H894" s="14"/>
+      <c r="H894" s="12"/>
     </row>
     <row r="895" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H895" s="14"/>
+      <c r="H895" s="12"/>
     </row>
     <row r="896" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H896" s="14"/>
+      <c r="H896" s="12"/>
     </row>
     <row r="897" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H897" s="14"/>
+      <c r="H897" s="12"/>
     </row>
     <row r="898" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H898" s="14"/>
+      <c r="H898" s="12"/>
     </row>
     <row r="899" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H899" s="14"/>
+      <c r="H899" s="12"/>
     </row>
     <row r="900" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H900" s="14"/>
+      <c r="H900" s="12"/>
     </row>
     <row r="901" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H901" s="14"/>
+      <c r="H901" s="12"/>
     </row>
     <row r="902" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H902" s="14"/>
+      <c r="H902" s="12"/>
     </row>
     <row r="903" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H903" s="14"/>
+      <c r="H903" s="12"/>
     </row>
     <row r="904" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H904" s="14"/>
+      <c r="H904" s="12"/>
     </row>
     <row r="905" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H905" s="14"/>
+      <c r="H905" s="12"/>
     </row>
     <row r="906" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H906" s="14"/>
+      <c r="H906" s="12"/>
     </row>
     <row r="907" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H907" s="14"/>
+      <c r="H907" s="12"/>
     </row>
     <row r="908" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H908" s="14"/>
+      <c r="H908" s="12"/>
     </row>
     <row r="909" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H909" s="14"/>
+      <c r="H909" s="12"/>
     </row>
     <row r="910" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H910" s="14"/>
+      <c r="H910" s="12"/>
     </row>
     <row r="911" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H911" s="14"/>
+      <c r="H911" s="12"/>
     </row>
     <row r="912" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H912" s="14"/>
+      <c r="H912" s="12"/>
     </row>
     <row r="913" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H913" s="14"/>
+      <c r="H913" s="12"/>
     </row>
     <row r="914" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H914" s="14"/>
+      <c r="H914" s="12"/>
     </row>
     <row r="915" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H915" s="14"/>
+      <c r="H915" s="12"/>
     </row>
     <row r="916" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H916" s="14"/>
+      <c r="H916" s="12"/>
     </row>
     <row r="917" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H917" s="14"/>
+      <c r="H917" s="12"/>
     </row>
     <row r="918" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H918" s="14"/>
+      <c r="H918" s="12"/>
     </row>
     <row r="919" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H919" s="14"/>
+      <c r="H919" s="12"/>
     </row>
     <row r="920" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H920" s="14"/>
+      <c r="H920" s="12"/>
     </row>
     <row r="921" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H921" s="14"/>
+      <c r="H921" s="12"/>
     </row>
     <row r="922" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H922" s="14"/>
+      <c r="H922" s="12"/>
     </row>
     <row r="923" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H923" s="14"/>
+      <c r="H923" s="12"/>
     </row>
     <row r="924" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H924" s="14"/>
+      <c r="H924" s="12"/>
     </row>
     <row r="925" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H925" s="14"/>
+      <c r="H925" s="12"/>
     </row>
     <row r="926" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H926" s="14"/>
+      <c r="H926" s="12"/>
     </row>
     <row r="927" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H927" s="14"/>
+      <c r="H927" s="12"/>
     </row>
     <row r="928" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H928" s="14"/>
+      <c r="H928" s="12"/>
     </row>
     <row r="929" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H929" s="14"/>
+      <c r="H929" s="12"/>
     </row>
     <row r="930" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H930" s="14"/>
+      <c r="H930" s="12"/>
     </row>
     <row r="931" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H931" s="14"/>
+      <c r="H931" s="12"/>
     </row>
     <row r="932" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H932" s="14"/>
+      <c r="H932" s="12"/>
     </row>
     <row r="933" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H933" s="14"/>
+      <c r="H933" s="12"/>
     </row>
     <row r="934" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H934" s="14"/>
+      <c r="H934" s="12"/>
     </row>
     <row r="935" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H935" s="14"/>
+      <c r="H935" s="12"/>
     </row>
     <row r="936" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H936" s="14"/>
+      <c r="H936" s="12"/>
     </row>
     <row r="937" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H937" s="14"/>
+      <c r="H937" s="12"/>
+    </row>
+    <row r="938" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H938" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4636,10 +4637,10 @@
     <mergeCell ref="A15:A18"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2 A8 A15 A19:A55" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2 A8 A15 A19:A56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Task_Group</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:D23 C47:D55" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:D23 C48:D56 C24:C30 C32:C47" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Member</formula1>
     </dataValidation>
   </dataValidations>
@@ -4670,492 +4671,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>53</v>
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="B2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="18">
         <v>5</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="19">
         <v>1</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <f t="shared" ref="H2:H19" si="0">F2*G2</f>
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>59</v>
+      <c r="I2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="78" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="15">
         <f t="shared" ref="A3:A4" si="1">(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="20">
+      <c r="B3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="18">
         <v>4</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>0.75</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>62</v>
+      <c r="I3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="15">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="18">
         <v>4</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <v>0.75</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>65</v>
+      <c r="I4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="20">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="18">
         <v>2</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <v>0.5</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>69</v>
+      <c r="I5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="20">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="18">
         <v>4</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>0.75</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="7" spans="1:10" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="20">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="18">
         <v>4</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>0.75</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>74</v>
+      <c r="I7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <f>(A4+1)</f>
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="B8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="18">
         <v>3</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>0.75</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>78</v>
+      <c r="I8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <f t="shared" ref="A9:A19" si="2">(A8+1)</f>
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="B9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="18">
         <v>4</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>0.25</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>81</v>
+      <c r="I9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22">
+      <c r="B10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="19" t="s">
-        <v>84</v>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="15">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22">
+      <c r="B11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22">
+      <c r="B12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22">
+      <c r="C13" s="17"/>
+      <c r="D13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="15">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="15">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6165,7 +6166,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6176,149 +6177,156 @@
     <col min="4" max="4" width="21.19921875" customWidth="1"/>
     <col min="5" max="5" width="14.69921875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" customWidth="1"/>
     <col min="8" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>92</v>
+      <c r="E1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="24">
+      <c r="A2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="23">
         <v>0.1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="A3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="22">
         <v>2</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="23">
         <v>0.25</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>129</v>
+      <c r="E3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="A4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="22">
         <v>3</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="23">
         <v>0.5</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>126</v>
+      <c r="E4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="A5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="22">
         <v>4</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="23">
         <v>0.75</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>128</v>
+      <c r="E5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>5</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>127</v>
+      <c r="D6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>125</v>
+      <c r="E7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="G8" s="24"/>
+      <c r="G8" s="75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="77" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7324,127 +7332,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="57"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="57"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="68"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="33" t="s">
+      <c r="E6" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="35" t="s">
+      <c r="D7" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="E7" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="A10" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="34"/>
+      <c r="A12" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="17" spans="5:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="E17" s="26"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8428,6 +8436,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A10:B11"/>
@@ -8437,283 +8450,8 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="C10:E11"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8824411C-AC2F-4EA2-8A9D-639B4D136B7D}">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="6"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B1:C22" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>Member</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>